--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4813" uniqueCount="3710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="3715">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -7065,7 +7065,7 @@
     <t xml:space="preserve">으아앗! #1은(는) 균형을 잃고 넘어졌다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Noooo! #1 lose(s) balance and  trumble(s).</t>
+    <t xml:space="preserve">Noooo! #1 lose(s) balance and  tumble(s).</t>
   </si>
   <si>
     <t xml:space="preserve">うわああ！#1はバランスを失って転んだ。</t>
@@ -11363,6 +11363,21 @@
   </si>
   <si>
     <t xml:space="preserve">保存に失敗しました。ディスク容量の不足、ファイルへのアクセス違反などのため、ファイルが正常に書き込めません。もう一度保存してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rune_tooHard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1의 경도가 부족하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 are/is not hard enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の硬度が足りない。</t>
   </si>
 </sst>
 </file>
@@ -11595,12 +11610,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F921"/>
+  <dimension ref="A1:F922"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A909" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I922" activeCellId="0" sqref="I922"/>
+      <selection pane="bottomLeft" activeCell="D923" activeCellId="0" sqref="D923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27885,6 +27900,23 @@
       </c>
       <c r="F921" s="0" t="s">
         <v>3709</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D922" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E922" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F922" s="0" t="s">
+        <v>3714</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="3715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="3720">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -11378,6 +11378,36 @@
   </si>
   <si>
     <t xml:space="preserve">#1の硬度が足りない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 추잡한 손놀림으로 #2을(를) 만졌다.
+#1은(는) 꿈틀거렸다.
+#1은(는) 요염한 눈빛으로 #2을(를) 유혹했다.
+#1은(는) 거칠게 헐떡였다.
+#1의 소름끼치는 촉수가 #2의 몸을 더듬었다.
+#1은(는) 쾌감으로 몸을 떨었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 touch(es) #2 with sinful hands.
+#1 writhe(s).
+#1 lure(s) #2 with a seductive gaze.
+#1 gasp(s) intensely.
+#your grotesque tentacles caresse #his2 body.
+#1 tremble(s) with pleasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は淫らな手で#2を触った。
+#1はくねくねした。
+#1は妖艶な視線で#2を誘った。
+#1は激しく喘いだ。
+#1のおぞましい触手が#2の身体を撫で回した。
+#1は快感に打ち震えた。</t>
   </si>
 </sst>
 </file>
@@ -11610,17 +11640,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F922"/>
+  <dimension ref="A1:F923"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A909" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A912" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D923" activeCellId="0" sqref="D923"/>
+      <selection pane="bottomLeft" activeCell="E926" activeCellId="0" sqref="E926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27917,6 +27950,23 @@
       </c>
       <c r="F922" s="0" t="s">
         <v>3714</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="0" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>3717</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>3718</v>
+      </c>
+      <c r="F923" s="2" t="s">
+        <v>3719</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="3720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="3741">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -9811,6 +9811,21 @@
     <t xml:space="preserve">#1は#2をギュッと抱きしめた。</t>
   </si>
   <si>
+    <t xml:space="preserve">diary_littleOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">리틀 시스터가 당신의 손을 슬며시 잡았다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little sister silently slips her hand into yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リトルシスターがあなたの手をそっと握った。</t>
+  </si>
+  <si>
     <t xml:space="preserve">diary_sister</t>
   </si>
   <si>
@@ -9970,7 +9985,7 @@
     <t xml:space="preserve">time_warn_2</t>
   </si>
   <si>
-    <t xml:space="preserve">에이슈란드 「적당적당히 해」</t>
+    <t xml:space="preserve">에이슈란드 「쉬엄쉬엄 해」</t>
   </si>
   <si>
     <t xml:space="preserve">Ashland shrugs, "Take it easy."</t>
@@ -10771,7 +10786,7 @@
     <t xml:space="preserve">whistle</t>
   </si>
   <si>
-    <t xml:space="preserve">#1은(는) #2을(를) 날려버렸다.</t>
+    <t xml:space="preserve">#1은(는) #2을(를) 불었다.</t>
   </si>
   <si>
     <t xml:space="preserve">#1 blow(s) #2.</t>
@@ -11408,6 +11423,60 @@
 #1は激しく喘いだ。
 #1のおぞましい触手が#2の身体を撫で回した。
 #1は快感に打ち震えた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushed_money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 지갑이 가벼워진 느낌이 들었다.
+#2은(는) 간사하게 웃었다.
+#2은(는) 큭큭 하고 미소지었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) like #his wallet is lighter.
+#2 grins cunningly.
+#2 flashes a sneaky smile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は財布が軽くなった気がした。
+#2はずる賢く笑った。
+#2はくすりと微笑んだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recharge_stamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1의 피로가 풀렸다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 recover(s) from #his fatigue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の疲れはとれた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recharge_stamina_fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그것은 더는 피로에 효과가 없는 것 같다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It no longer relieves fatigue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それはもう疲労には効果がないようだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recharge_stamina_negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 피곤해졌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) tired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は疲れを感じた。</t>
   </si>
 </sst>
 </file>
@@ -11640,20 +11709,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F923"/>
+  <dimension ref="A1:F928"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A912" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A859" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E926" activeCellId="0" sqref="E926"/>
+      <selection pane="bottomLeft" activeCell="L882" activeCellId="0" sqref="L882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="14.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25849,262 +25915,262 @@
         <v>3194</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>2626</v>
+        <v>3195</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E799" s="0" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="F799" s="0" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="B800" s="0" t="s">
         <v>2626</v>
       </c>
       <c r="D800" s="0" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E800" s="0" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="F800" s="0" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="B801" s="0" t="s">
         <v>2626</v>
       </c>
       <c r="D801" s="0" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E801" s="0" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F801" s="0" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>565</v>
+        <v>2626</v>
       </c>
       <c r="D802" s="0" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E802" s="0" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="F802" s="0" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="B803" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D803" s="0" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E803" s="0" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="F803" s="0" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="B804" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D804" s="0" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E804" s="0" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="F804" s="0" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="B805" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D805" s="0" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E805" s="0" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="F805" s="0" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="B806" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D806" s="0" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E806" s="0" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="F806" s="0" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="B807" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D807" s="0" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="E807" s="0" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="F807" s="0" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="B808" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E808" s="0" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="F808" s="0" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="B809" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D809" s="0" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E809" s="0" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="F809" s="0" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="B810" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E810" s="0" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="F810" s="0" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="B811" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D811" s="0" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E811" s="0" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="F811" s="0" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="B812" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D812" s="0" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E812" s="0" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="F812" s="0" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="B813" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D813" s="0" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E813" s="0" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="F813" s="0" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>3255</v>
+        <v>565</v>
       </c>
       <c r="D814" s="0" t="s">
         <v>3256</v>
@@ -26121,109 +26187,109 @@
         <v>3259</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>565</v>
+        <v>3260</v>
       </c>
       <c r="D815" s="0" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="E815" s="0" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="F815" s="0" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="B816" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D816" s="0" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E816" s="0" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="F816" s="0" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="B817" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D817" s="0" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="E817" s="0" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="F817" s="0" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="B818" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D818" s="0" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="E818" s="0" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="F818" s="0" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="B819" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D819" s="0" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E819" s="0" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="F819" s="0" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="B820" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E820" s="0" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="F820" s="0" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>3284</v>
+        <v>565</v>
       </c>
       <c r="D821" s="0" t="s">
         <v>3285</v>
@@ -26240,143 +26306,143 @@
         <v>3288</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>3284</v>
+        <v>3289</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E822" s="0" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="F822" s="0" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>3284</v>
+        <v>3289</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E823" s="0" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="F823" s="0" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>628</v>
+        <v>3289</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="E824" s="0" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="F824" s="0" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>1828</v>
+        <v>628</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E825" s="0" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="F825" s="0" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="B826" s="0" t="s">
         <v>1828</v>
       </c>
       <c r="D826" s="0" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E826" s="0" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="F826" s="0" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="B827" s="0" t="s">
         <v>1828</v>
       </c>
       <c r="D827" s="0" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E827" s="0" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="F827" s="0" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>1819</v>
+        <v>1828</v>
       </c>
       <c r="D828" s="0" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="E828" s="0" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="F828" s="0" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="B829" s="0" t="s">
         <v>1819</v>
       </c>
       <c r="D829" s="0" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E829" s="0" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F829" s="0" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>3321</v>
+        <v>1819</v>
       </c>
       <c r="D830" s="0" t="s">
         <v>3322</v>
@@ -26393,126 +26459,126 @@
         <v>3325</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>3321</v>
+        <v>3326</v>
       </c>
       <c r="D831" s="0" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E831" s="0" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="F831" s="0" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>3321</v>
+        <v>3326</v>
       </c>
       <c r="D832" s="0" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="E832" s="0" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="F832" s="0" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>2147</v>
+        <v>3326</v>
       </c>
       <c r="D833" s="0" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E833" s="0" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="F833" s="0" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="B834" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D834" s="0" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E834" s="0" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="F834" s="0" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="B835" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D835" s="0" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="E835" s="0" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="F835" s="0" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="B836" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D836" s="0" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E836" s="0" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="F836" s="0" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="B837" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D837" s="0" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E837" s="0" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="F837" s="0" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>3354</v>
+        <v>2147</v>
       </c>
       <c r="D838" s="0" t="s">
         <v>3355</v>
@@ -26546,143 +26612,143 @@
         <v>3363</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>2147</v>
+        <v>3364</v>
       </c>
       <c r="D840" s="0" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="E840" s="0" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="F840" s="0" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="B841" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D841" s="0" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E841" s="0" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="F841" s="0" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="B842" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D842" s="0" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E842" s="0" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="F842" s="0" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="B843" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D843" s="0" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="E843" s="0" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="F843" s="0" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="B844" s="0" t="s">
         <v>2147</v>
       </c>
       <c r="D844" s="0" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E844" s="0" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="F844" s="0" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>1560</v>
+        <v>2147</v>
       </c>
       <c r="D845" s="0" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="E845" s="0" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="B846" s="0" t="s">
         <v>1560</v>
       </c>
       <c r="D846" s="0" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E846" s="0" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F846" s="0" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="B847" s="0" t="s">
         <v>1560</v>
       </c>
       <c r="D847" s="0" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="E847" s="0" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="F847" s="0" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>3396</v>
+        <v>1560</v>
       </c>
       <c r="D848" s="0" t="s">
         <v>3397</v>
@@ -26716,41 +26782,41 @@
         <v>3405</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>68</v>
+        <v>3406</v>
       </c>
       <c r="D850" s="0" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E850" s="0" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="D851" s="0" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="E851" s="0" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>3414</v>
+        <v>164</v>
       </c>
       <c r="D852" s="0" t="s">
         <v>3415</v>
@@ -26835,41 +26901,41 @@
         <v>3438</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>1555</v>
+        <v>3439</v>
       </c>
       <c r="D857" s="0" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E857" s="0" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B858" s="0" t="s">
         <v>1555</v>
       </c>
       <c r="D858" s="0" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="E858" s="0" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>3447</v>
+        <v>1555</v>
       </c>
       <c r="D859" s="0" t="s">
         <v>3448</v>
@@ -26886,24 +26952,24 @@
         <v>3451</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>3447</v>
+        <v>3452</v>
       </c>
       <c r="D860" s="0" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="E860" s="0" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="F860" s="0" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="D861" s="0" t="s">
         <v>3457</v>
@@ -26920,24 +26986,24 @@
         <v>3460</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>474</v>
+        <v>3461</v>
       </c>
       <c r="D862" s="0" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E862" s="0" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="F862" s="0" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>3465</v>
+        <v>474</v>
       </c>
       <c r="D863" s="0" t="s">
         <v>3466</v>
@@ -26954,75 +27020,75 @@
         <v>3469</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>3465</v>
+        <v>3470</v>
       </c>
       <c r="D864" s="0" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="E864" s="0" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>3465</v>
+        <v>3470</v>
       </c>
       <c r="D865" s="0" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E865" s="0" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="F865" s="0" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>3465</v>
+        <v>3470</v>
       </c>
       <c r="D866" s="0" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E866" s="0" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>3465</v>
+        <v>3470</v>
       </c>
       <c r="D867" s="0" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E867" s="0" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="F867" s="0" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>3486</v>
+        <v>3470</v>
       </c>
       <c r="D868" s="0" t="s">
         <v>3487</v>
@@ -27039,47 +27105,47 @@
         <v>3490</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>3091</v>
+        <v>3491</v>
       </c>
       <c r="D869" s="0" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="E869" s="0" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="B870" s="0" t="s">
         <v>3091</v>
       </c>
       <c r="D870" s="0" t="s">
-        <v>3491</v>
+        <v>3496</v>
       </c>
       <c r="E870" s="0" t="s">
-        <v>3492</v>
+        <v>3497</v>
       </c>
       <c r="F870" s="0" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D871" s="0" t="s">
         <v>3496</v>
       </c>
-      <c r="B871" s="0" t="s">
+      <c r="E871" s="0" t="s">
         <v>3497</v>
-      </c>
-      <c r="D871" s="0" t="s">
-        <v>3498</v>
-      </c>
-      <c r="E871" s="0" t="s">
-        <v>3499</v>
       </c>
       <c r="F871" s="0" t="s">
         <v>3500</v>
@@ -27090,109 +27156,109 @@
         <v>3501</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>2593</v>
+        <v>3502</v>
       </c>
       <c r="D872" s="0" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="E872" s="0" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="F872" s="0" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>628</v>
+        <v>2593</v>
       </c>
       <c r="D873" s="0" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E873" s="0" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="F873" s="0" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="B874" s="0" t="s">
         <v>628</v>
       </c>
       <c r="D874" s="0" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E874" s="0" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="F874" s="0" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>40</v>
+        <v>628</v>
       </c>
       <c r="D875" s="0" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="E875" s="0" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="F875" s="0" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="B876" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D876" s="0" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="E876" s="0" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="F876" s="0" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="B877" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D877" s="0" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="E877" s="0" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="F877" s="0" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>3526</v>
+        <v>40</v>
       </c>
       <c r="D878" s="0" t="s">
         <v>3527</v>
@@ -27209,24 +27275,24 @@
         <v>3530</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>347</v>
+        <v>3531</v>
       </c>
       <c r="D879" s="0" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E879" s="0" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="F879" s="0" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>3535</v>
+        <v>347</v>
       </c>
       <c r="D880" s="0" t="s">
         <v>3536</v>
@@ -27243,109 +27309,109 @@
         <v>3539</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>3535</v>
+        <v>3540</v>
       </c>
       <c r="D881" s="0" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E881" s="0" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="F881" s="0" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>3535</v>
+        <v>3540</v>
       </c>
       <c r="D882" s="0" t="s">
-        <v>1749</v>
+        <v>3545</v>
       </c>
       <c r="E882" s="0" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="F882" s="0" t="s">
-        <v>1751</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>134</v>
+        <v>3540</v>
       </c>
       <c r="D883" s="0" t="s">
-        <v>3546</v>
+        <v>1749</v>
       </c>
       <c r="E883" s="0" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="F883" s="0" t="s">
-        <v>3548</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="B884" s="0" t="s">
         <v>134</v>
       </c>
       <c r="D884" s="0" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E884" s="0" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="F884" s="0" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>1194</v>
+        <v>134</v>
       </c>
       <c r="D885" s="0" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E885" s="0" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="F885" s="0" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="B886" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="D886" s="0" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E886" s="0" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>3562</v>
+        <v>1194</v>
       </c>
       <c r="D887" s="0" t="s">
         <v>3563</v>
@@ -27362,24 +27428,24 @@
         <v>3566</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>3562</v>
+        <v>3567</v>
       </c>
       <c r="D888" s="0" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E888" s="0" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="F888" s="0" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="D889" s="0" t="s">
         <v>3572</v>
@@ -27396,228 +27462,228 @@
         <v>3575</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D890" s="0" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E890" s="0" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="F890" s="0" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D891" s="0" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="E891" s="0" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="F891" s="0" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D892" s="0" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E892" s="0" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="F892" s="0" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D893" s="0" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="E893" s="0" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="F893" s="0" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D894" s="0" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="F894" s="0" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="D895" s="0" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E895" s="0" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="F895" s="0" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>583</v>
+        <v>3576</v>
       </c>
       <c r="D896" s="0" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E896" s="0" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="F896" s="0" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D897" s="0" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E897" s="0" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="F897" s="0" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="B898" s="0" t="s">
         <v>574</v>
       </c>
       <c r="D898" s="0" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E898" s="0" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F898" s="0" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>1071</v>
+        <v>574</v>
       </c>
       <c r="D899" s="0" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E899" s="0" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="F899" s="0" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="B900" s="0" t="s">
         <v>1071</v>
       </c>
       <c r="D900" s="0" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E900" s="0" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="901" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="B901" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="D901" s="2" t="s">
-        <v>3620</v>
-      </c>
-      <c r="E901" s="2" t="s">
+      <c r="D901" s="0" t="s">
         <v>3621</v>
       </c>
-      <c r="F901" s="2" t="s">
+      <c r="E901" s="0" t="s">
         <v>3622</v>
       </c>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F901" s="0" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="B902" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="D902" s="0" t="s">
-        <v>3624</v>
-      </c>
-      <c r="E902" s="0" t="s">
+      <c r="D902" s="2" t="s">
         <v>3625</v>
       </c>
-      <c r="F902" s="0" t="s">
+      <c r="E902" s="2" t="s">
         <v>3626</v>
+      </c>
+      <c r="F902" s="2" t="s">
+        <v>3627</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>3628</v>
+        <v>1071</v>
       </c>
       <c r="D903" s="0" t="s">
         <v>3629</v>
@@ -27651,58 +27717,58 @@
         <v>3637</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>2491</v>
+        <v>3638</v>
       </c>
       <c r="D905" s="0" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="E905" s="0" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="F905" s="0" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="B906" s="0" t="s">
         <v>2491</v>
       </c>
       <c r="D906" s="0" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="E906" s="0" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="F906" s="0" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="B907" s="0" t="s">
         <v>2491</v>
       </c>
       <c r="D907" s="0" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E907" s="0" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="F907" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>3650</v>
+        <v>2491</v>
       </c>
       <c r="D908" s="0" t="s">
         <v>3651</v>
@@ -27787,160 +27853,160 @@
         <v>3674</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>211</v>
+        <v>3675</v>
       </c>
       <c r="D913" s="0" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E913" s="0" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="F913" s="0" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="B914" s="0" t="s">
         <v>211</v>
       </c>
       <c r="D914" s="0" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="E914" s="0" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="F914" s="0" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="B915" s="0" t="s">
         <v>211</v>
       </c>
       <c r="D915" s="0" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E915" s="0" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="F915" s="0" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="B916" s="0" t="s">
         <v>211</v>
       </c>
       <c r="D916" s="0" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="E916" s="0" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="F916" s="0" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="D917" s="0" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="E917" s="0" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="F917" s="0" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="B918" s="0" t="s">
         <v>262</v>
       </c>
       <c r="D918" s="0" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="E918" s="0" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="F918" s="0" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="B919" s="0" t="s">
         <v>262</v>
       </c>
       <c r="D919" s="0" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="E919" s="0" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="F919" s="0" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="B920" s="0" t="s">
         <v>262</v>
       </c>
       <c r="D920" s="0" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="E920" s="0" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="F920" s="0" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>2805</v>
+        <v>262</v>
       </c>
       <c r="D921" s="0" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="E921" s="0" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="F921" s="0" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>3711</v>
+        <v>2805</v>
       </c>
       <c r="D922" s="0" t="s">
         <v>3712</v>
@@ -27952,21 +28018,106 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
         <v>3715</v>
       </c>
       <c r="B923" s="0" t="s">
         <v>3716</v>
       </c>
-      <c r="D923" s="2" t="s">
+      <c r="D923" s="0" t="s">
         <v>3717</v>
       </c>
-      <c r="E923" s="2" t="s">
+      <c r="E923" s="0" t="s">
         <v>3718</v>
       </c>
-      <c r="F923" s="2" t="s">
+      <c r="F923" s="0" t="s">
         <v>3719</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="0" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>3722</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>3723</v>
+      </c>
+      <c r="F924" s="2" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>3726</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>3727</v>
+      </c>
+      <c r="F925" s="2" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="0" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D926" s="0" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E926" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F926" s="0" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D927" s="0" t="s">
+        <v>3734</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>3735</v>
+      </c>
+      <c r="F927" s="0" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="0" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D928" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E928" s="0" t="s">
+        <v>3739</v>
+      </c>
+      <c r="F928" s="0" t="s">
+        <v>3740</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="3920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="3937">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -7836,6 +7836,33 @@
     <t xml:space="preserve">気をつけろ！敵陣の主、#1が突っ込んでくるぞ！</t>
   </si>
   <si>
+    <t xml:space="preserve">alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*애ー앵ー! 애ー앵ー! 애ー앵ー!*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*BEEP-BEEP-BEEP! BEEP-BEEP-BEEP!*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ウーウー！ ウーウー！ ウーウー！*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">시끄러운 경보가 울려퍼진다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A shrill alarm blares through the air!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">けたたましい警報が鳴り響いた！</t>
+  </si>
+  <si>
     <t xml:space="preserve">beware</t>
   </si>
   <si>
@@ -8242,6 +8269,18 @@
     <t xml:space="preserve">#1はマナを燃やした！</t>
   </si>
   <si>
+    <t xml:space="preserve">abMissileBarrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 미사일을 난사했다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 unleash(es) a barrage of missiles!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1はミサイルを乱射した！</t>
+  </si>
+  <si>
     <t xml:space="preserve">abCatSniff</t>
   </si>
   <si>
@@ -8339,6 +8378,18 @@
   </si>
   <si>
     <t xml:space="preserve">#1は物悲しい鳴き声をあげた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abWhirlwind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 고속으로 회전했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 spin(s) rapidly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は高速で回転した。</t>
   </si>
   <si>
     <t xml:space="preserve">abMistOfDarkness</t>
@@ -12267,12 +12318,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F974"/>
+  <dimension ref="A1:F978"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A708" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L722" activeCellId="0" sqref="L722"/>
+      <selection pane="bottomLeft" activeCell="L669" activeCellId="0" sqref="L669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23722,372 +23773,372 @@
         <v>2560</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>651</v>
+        <v>2561</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="F637" s="0" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>651</v>
+        <v>2561</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="F638" s="0" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="F639" s="0" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="B640" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="F640" s="0" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="F641" s="0" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="E642" s="0" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="F642" s="0" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D643" s="2" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E643" s="2" t="s">
+      <c r="D643" s="0" t="s">
         <v>2586</v>
       </c>
-      <c r="F643" s="2" t="s">
+      <c r="E643" s="0" t="s">
         <v>2587</v>
+      </c>
+      <c r="F643" s="0" t="s">
+        <v>2588</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="F644" s="0" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D645" s="0" t="s">
-        <v>2593</v>
-      </c>
-      <c r="E645" s="0" t="s">
+      <c r="D645" s="2" t="s">
         <v>2594</v>
       </c>
-      <c r="F645" s="0" t="s">
+      <c r="E645" s="2" t="s">
         <v>2595</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>2596</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="F646" s="0" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>164</v>
+        <v>651</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="F647" s="0" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="F648" s="0" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>651</v>
+        <v>164</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="E649" s="0" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="F649" s="0" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="B650" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="F650" s="0" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="B651" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="E651" s="0" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="F651" s="0" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="E652" s="0" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F652" s="0" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="F653" s="0" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="F654" s="0" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D655" s="2" t="s">
-        <v>2633</v>
-      </c>
-      <c r="E655" s="2" t="s">
+      <c r="D655" s="0" t="s">
         <v>2634</v>
       </c>
-      <c r="F655" s="2" t="s">
+      <c r="E655" s="0" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="656" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F655" s="0" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D656" s="2" t="s">
-        <v>2637</v>
-      </c>
-      <c r="E656" s="2" t="s">
+      <c r="D656" s="0" t="s">
         <v>2638</v>
       </c>
-      <c r="F656" s="2" t="s">
+      <c r="E656" s="0" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F656" s="0" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>2641</v>
-      </c>
-      <c r="D657" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D657" s="2" t="s">
         <v>2642</v>
       </c>
-      <c r="E657" s="0" t="s">
+      <c r="E657" s="2" t="s">
         <v>2643</v>
       </c>
-      <c r="F657" s="0" t="s">
+      <c r="F657" s="2" t="s">
         <v>2644</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
         <v>2645</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="D658" s="0" t="s">
+      <c r="D658" s="2" t="s">
         <v>2646</v>
       </c>
-      <c r="E658" s="0" t="s">
+      <c r="E658" s="2" t="s">
         <v>2647</v>
       </c>
-      <c r="F658" s="0" t="s">
+      <c r="F658" s="2" t="s">
         <v>2648</v>
       </c>
     </row>
@@ -24096,109 +24147,109 @@
         <v>2649</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>565</v>
+        <v>2650</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F659" s="0" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="F660" s="0" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="F661" s="0" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="F662" s="0" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>651</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="F663" s="0" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="664" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="D664" s="2" t="s">
-        <v>2670</v>
-      </c>
-      <c r="E664" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D664" s="0" t="s">
         <v>2671</v>
       </c>
-      <c r="F664" s="2" t="s">
+      <c r="E664" s="0" t="s">
         <v>2672</v>
+      </c>
+      <c r="F664" s="0" t="s">
+        <v>2673</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>2674</v>
+        <v>651</v>
       </c>
       <c r="D665" s="0" t="s">
         <v>2675</v>
@@ -24210,20 +24261,20 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
         <v>2678</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="D666" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D666" s="2" t="s">
         <v>2679</v>
       </c>
-      <c r="E666" s="0" t="s">
+      <c r="E666" s="2" t="s">
         <v>2680</v>
       </c>
-      <c r="F666" s="0" t="s">
+      <c r="F666" s="2" t="s">
         <v>2681</v>
       </c>
     </row>
@@ -24232,24 +24283,24 @@
         <v>2682</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1823</v>
+        <v>2683</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F667" s="0" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>2687</v>
+        <v>597</v>
       </c>
       <c r="D668" s="0" t="s">
         <v>2688</v>
@@ -24266,7 +24317,7 @@
         <v>2691</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>1867</v>
+        <v>2561</v>
       </c>
       <c r="D669" s="0" t="s">
         <v>2692</v>
@@ -24283,7 +24334,7 @@
         <v>2695</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>515</v>
+        <v>1823</v>
       </c>
       <c r="D670" s="0" t="s">
         <v>2696</v>
@@ -24300,738 +24351,738 @@
         <v>2699</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>660</v>
+        <v>2700</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="F671" s="0" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>515</v>
+        <v>1867</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="F672" s="0" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>673</v>
+        <v>515</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="F673" s="0" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="F674" s="0" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>253</v>
+        <v>515</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="F675" s="0" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>253</v>
+        <v>673</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="F676" s="0" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>253</v>
+        <v>597</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="F677" s="0" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>253</v>
+        <v>2561</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="F678" s="0" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B679" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D679" s="0" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="F679" s="0" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="B680" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="F680" s="0" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="F681" s="0" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="F682" s="0" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E683" s="0" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="F683" s="0" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E684" s="0" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="F684" s="0" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="E685" s="0" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="F685" s="0" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>574</v>
+        <v>253</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E686" s="0" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="F686" s="0" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>574</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="F687" s="0" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>248</v>
+        <v>574</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="F688" s="0" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>248</v>
+        <v>574</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="F689" s="0" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>248</v>
+        <v>574</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="F690" s="0" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>248</v>
+        <v>574</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="F691" s="0" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="B692" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="F692" s="0" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="F693" s="0" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>1580</v>
+        <v>248</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="F694" s="0" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>2780</v>
+        <v>2797</v>
       </c>
       <c r="E695" s="0" t="s">
-        <v>2781</v>
+        <v>2798</v>
       </c>
       <c r="F695" s="0" t="s">
-        <v>2782</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="B697" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D697" s="0" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="E697" s="0" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="F697" s="0" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>248</v>
+        <v>1580</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="E698" s="0" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="F698" s="0" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>2809</v>
+        <v>2797</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>2810</v>
+        <v>2798</v>
       </c>
       <c r="F699" s="0" t="s">
-        <v>2811</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="B700" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D700" s="0" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="F700" s="0" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="B701" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="E701" s="0" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="F701" s="0" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="B702" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="E702" s="0" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="F702" s="0" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D703" s="0" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="F703" s="0" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="B704" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D704" s="0" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="F704" s="0" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D705" s="0" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E705" s="0" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="F705" s="0" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="B706" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D706" s="0" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="F706" s="0" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D707" s="0" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="F707" s="0" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D708" s="0" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="F708" s="0" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="F709" s="0" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="B710" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="E710" s="0" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="F710" s="0" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="F711" s="0" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="B712" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D712" s="0" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="F712" s="0" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D713" s="0" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="F713" s="0" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>2869</v>
+        <v>248</v>
       </c>
       <c r="D714" s="0" t="s">
         <v>2870</v>
@@ -25048,211 +25099,211 @@
         <v>2873</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>2869</v>
+        <v>248</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="F715" s="0" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="F716" s="0" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>2869</v>
+        <v>248</v>
       </c>
       <c r="D717" s="0" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="E717" s="0" t="s">
-        <v>2876</v>
+        <v>2883</v>
       </c>
       <c r="F717" s="0" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>2869</v>
+        <v>2886</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>2882</v>
+        <v>2887</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
       <c r="F718" s="0" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>2885</v>
+        <v>2890</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>597</v>
+        <v>2886</v>
       </c>
       <c r="D719" s="0" t="s">
-        <v>2882</v>
+        <v>2887</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
       <c r="F719" s="0" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>2869</v>
+        <v>248</v>
       </c>
       <c r="D720" s="0" t="s">
-        <v>2887</v>
+        <v>2892</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
       <c r="F720" s="0" t="s">
-        <v>2889</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>2890</v>
+        <v>2895</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>597</v>
+        <v>2886</v>
       </c>
       <c r="D721" s="0" t="s">
-        <v>2887</v>
+        <v>2896</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
       <c r="F721" s="0" t="s">
-        <v>2889</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>2891</v>
+        <v>2898</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="D722" s="0" t="s">
-        <v>2893</v>
+        <v>2899</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>2894</v>
+        <v>2900</v>
       </c>
       <c r="F722" s="0" t="s">
-        <v>2895</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>2896</v>
+        <v>2902</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>2892</v>
+        <v>597</v>
       </c>
       <c r="D723" s="0" t="s">
-        <v>2893</v>
+        <v>2899</v>
       </c>
       <c r="E723" s="0" t="s">
-        <v>2894</v>
+        <v>2900</v>
       </c>
       <c r="F723" s="0" t="s">
-        <v>2895</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>2897</v>
+        <v>2903</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>248</v>
+        <v>2886</v>
       </c>
       <c r="D724" s="0" t="s">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>2899</v>
+        <v>2905</v>
       </c>
       <c r="F724" s="0" t="s">
-        <v>2900</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>2901</v>
+        <v>2907</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>248</v>
+        <v>597</v>
       </c>
       <c r="D725" s="0" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="F725" s="0" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>248</v>
+        <v>2909</v>
       </c>
       <c r="D726" s="0" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="F726" s="0" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B727" s="0" t="s">
         <v>2909</v>
-      </c>
-      <c r="B727" s="0" t="s">
-        <v>248</v>
       </c>
       <c r="D727" s="0" t="s">
         <v>2910</v>
@@ -25266,469 +25317,469 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D728" s="0" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="F728" s="0" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="F729" s="0" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="F730" s="0" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D731" s="0" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="F731" s="0" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="F732" s="0" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="B733" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="F733" s="0" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="734" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="B734" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D734" s="2" t="s">
-        <v>2937</v>
-      </c>
-      <c r="E734" s="2" t="s">
-        <v>2938</v>
-      </c>
-      <c r="F734" s="2" t="s">
+      <c r="D734" s="0" t="s">
         <v>2939</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F734" s="0" t="s">
+        <v>2941</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="F735" s="0" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="E736" s="0" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="F736" s="0" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D737" s="0" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="F737" s="0" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D738" s="0" t="s">
-        <v>2953</v>
-      </c>
-      <c r="E738" s="0" t="s">
+      <c r="D738" s="2" t="s">
         <v>2954</v>
       </c>
-      <c r="F738" s="0" t="s">
+      <c r="E738" s="2" t="s">
         <v>2955</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>2956</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>690</v>
+        <v>177</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="F739" s="0" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="D740" s="0" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="F740" s="0" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="F741" s="0" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="F742" s="0" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>63</v>
+        <v>690</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="F743" s="0" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>588</v>
+        <v>248</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="F744" s="0" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="F745" s="0" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="746" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D746" s="2" t="s">
-        <v>2985</v>
-      </c>
-      <c r="E746" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D746" s="0" t="s">
         <v>2986</v>
       </c>
-      <c r="F746" s="2" t="s">
+      <c r="E746" s="0" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="747" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F746" s="0" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="B747" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D747" s="2" t="s">
-        <v>2989</v>
-      </c>
-      <c r="E747" s="2" t="s">
+      <c r="D747" s="0" t="s">
         <v>2990</v>
       </c>
-      <c r="F747" s="2" t="s">
+      <c r="E747" s="0" t="s">
         <v>2991</v>
+      </c>
+      <c r="F747" s="0" t="s">
+        <v>2992</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="F748" s="0" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>642</v>
+        <v>63</v>
       </c>
       <c r="D749" s="0" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="E749" s="0" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="F749" s="0" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D750" s="0" t="s">
-        <v>3001</v>
-      </c>
-      <c r="E750" s="0" t="s">
+      <c r="D750" s="2" t="s">
         <v>3002</v>
       </c>
-      <c r="F750" s="0" t="s">
+      <c r="E750" s="2" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F750" s="2" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B751" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D751" s="0" t="s">
-        <v>3005</v>
-      </c>
-      <c r="E751" s="0" t="s">
+      <c r="D751" s="2" t="s">
         <v>3006</v>
       </c>
-      <c r="F751" s="0" t="s">
+      <c r="E751" s="2" t="s">
         <v>3007</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>3008</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="B752" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="F752" s="0" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>63</v>
+        <v>642</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="F753" s="0" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="B754" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D754" s="0" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="E754" s="0" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="F754" s="0" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>3021</v>
+        <v>63</v>
       </c>
       <c r="D755" s="0" t="s">
         <v>3022</v>
@@ -25796,628 +25847,628 @@
         <v>3037</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>63</v>
+        <v>3038</v>
       </c>
       <c r="D759" s="0" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="E759" s="0" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="F759" s="0" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B760" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D760" s="0" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="E760" s="0" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="F760" s="0" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B761" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D761" s="0" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="E761" s="0" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="F761" s="0" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B762" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D762" s="0" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E762" s="0" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="F762" s="0" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B763" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D763" s="0" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E763" s="0" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="F763" s="0" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B764" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D764" s="0" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="E764" s="0" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="F764" s="0" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="B765" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D765" s="0" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="E765" s="0" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="F765" s="0" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="D766" s="0" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E766" s="0" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="F766" s="0" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="D767" s="0" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E767" s="0" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="F767" s="0" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="768" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>3074</v>
-      </c>
-      <c r="E768" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D768" s="0" t="s">
         <v>3075</v>
       </c>
-      <c r="F768" s="2" t="s">
+      <c r="E768" s="0" t="s">
         <v>3076</v>
+      </c>
+      <c r="F768" s="0" t="s">
+        <v>3077</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="D769" s="0" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E769" s="0" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="F769" s="0" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B770" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D770" s="0" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E770" s="0" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="F770" s="0" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D771" s="0" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="E771" s="0" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="F771" s="0" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="B772" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D772" s="0" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E772" s="0" t="s">
+      <c r="D772" s="2" t="s">
         <v>3091</v>
       </c>
-      <c r="F772" s="0" t="s">
+      <c r="E772" s="2" t="s">
         <v>3092</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>3093</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="D773" s="0" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E773" s="0" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="F773" s="0" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="B774" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E774" s="0" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="F774" s="0" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="E775" s="0" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="F775" s="0" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="B776" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="E776" s="0" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="F776" s="0" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B777" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E777" s="0" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="F777" s="0" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="B778" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D778" s="0" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="E778" s="0" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="F778" s="0" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="B779" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E779" s="0" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="F779" s="0" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="B780" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E780" s="0" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="F780" s="0" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="B781" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D781" s="0" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E781" s="0" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="F781" s="0" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B782" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D782" s="0" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E782" s="0" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="F782" s="0" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="B783" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E783" s="0" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="F783" s="0" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="B784" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E784" s="0" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F784" s="0" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B785" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D785" s="0" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E785" s="0" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="F785" s="0" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="B786" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D786" s="0" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E786" s="0" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="F786" s="0" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>2544</v>
+        <v>253</v>
       </c>
       <c r="D787" s="0" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E787" s="0" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="F787" s="0" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>2544</v>
+        <v>253</v>
       </c>
       <c r="D788" s="0" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="E788" s="0" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="F788" s="0" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>565</v>
+        <v>253</v>
       </c>
       <c r="D789" s="0" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E789" s="0" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="F789" s="0" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="B790" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D790" s="0" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="F790" s="0" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>253</v>
+        <v>2544</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>3090</v>
+        <v>3167</v>
       </c>
       <c r="E791" s="0" t="s">
-        <v>3091</v>
+        <v>3168</v>
       </c>
       <c r="F791" s="0" t="s">
-        <v>3092</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>3167</v>
+        <v>2544</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="E792" s="0" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="F792" s="0" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="B793" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="E793" s="0" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="F793" s="0" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>1876</v>
+        <v>253</v>
       </c>
       <c r="D794" s="0" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="E794" s="0" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="F794" s="0" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="D795" s="0" t="s">
-        <v>3180</v>
+        <v>3107</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>3181</v>
+        <v>3108</v>
       </c>
       <c r="F795" s="0" t="s">
-        <v>3182</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26425,75 +26476,75 @@
         <v>3183</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>177</v>
+        <v>3184</v>
       </c>
       <c r="D796" s="0" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="E796" s="0" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="F796" s="0" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>177</v>
+        <v>565</v>
       </c>
       <c r="D797" s="0" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E797" s="0" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="F797" s="0" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>177</v>
+        <v>1876</v>
       </c>
       <c r="D798" s="0" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="E798" s="0" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="F798" s="0" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B799" s="0" t="s">
         <v>177</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E799" s="0" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="F799" s="0" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>3200</v>
+        <v>177</v>
       </c>
       <c r="D800" s="0" t="s">
         <v>3201</v>
@@ -26510,7 +26561,7 @@
         <v>3204</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D801" s="0" t="s">
         <v>3205</v>
@@ -26527,7 +26578,7 @@
         <v>3208</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D802" s="0" t="s">
         <v>3209</v>
@@ -26544,27 +26595,24 @@
         <v>3212</v>
       </c>
       <c r="B803" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D803" s="0" t="s">
         <v>3213</v>
       </c>
-      <c r="D803" s="0" t="s">
+      <c r="E803" s="0" t="s">
         <v>3214</v>
       </c>
-      <c r="E803" s="0" t="s">
+      <c r="F803" s="0" t="s">
         <v>3215</v>
-      </c>
-      <c r="F803" s="0" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B804" s="0" t="s">
         <v>3217</v>
-      </c>
-      <c r="B804" s="0" t="s">
-        <v>3213</v>
-      </c>
-      <c r="C804" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D804" s="0" t="s">
         <v>3218</v>
@@ -26581,44 +26629,41 @@
         <v>3221</v>
       </c>
       <c r="B805" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D805" s="0" t="s">
         <v>3222</v>
       </c>
-      <c r="C805" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="D805" s="0" t="s">
+      <c r="E805" s="0" t="s">
         <v>3223</v>
       </c>
-      <c r="E805" s="0" t="s">
+      <c r="F805" s="0" t="s">
         <v>3224</v>
-      </c>
-      <c r="F805" s="0" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B806" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D806" s="0" t="s">
         <v>3226</v>
       </c>
-      <c r="B806" s="0" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D806" s="0" t="s">
+      <c r="E806" s="0" t="s">
         <v>3227</v>
       </c>
-      <c r="E806" s="0" t="s">
+      <c r="F806" s="0" t="s">
         <v>3228</v>
-      </c>
-      <c r="F806" s="0" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B807" s="0" t="s">
         <v>3230</v>
-      </c>
-      <c r="B807" s="0" t="s">
-        <v>3021</v>
       </c>
       <c r="D807" s="0" t="s">
         <v>3231</v>
@@ -26635,81 +26680,87 @@
         <v>3234</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>303</v>
+        <v>3230</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>520</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>2290</v>
+        <v>3235</v>
       </c>
       <c r="E808" s="0" t="s">
-        <v>2291</v>
+        <v>3236</v>
       </c>
       <c r="F808" s="0" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>303</v>
+        <v>3239</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>520</v>
       </c>
       <c r="D809" s="0" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="E809" s="0" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="F809" s="0" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>3241</v>
+        <v>3038</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="E810" s="0" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="F810" s="0" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>812</v>
+        <v>3038</v>
       </c>
       <c r="D811" s="0" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="E811" s="0" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="F811" s="0" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>812</v>
+        <v>303</v>
       </c>
       <c r="D812" s="0" t="s">
-        <v>3250</v>
+        <v>2290</v>
       </c>
       <c r="E812" s="0" t="s">
-        <v>3251</v>
+        <v>2291</v>
       </c>
       <c r="F812" s="0" t="s">
         <v>3252</v>
@@ -26720,7 +26771,7 @@
         <v>3253</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>1201</v>
+        <v>303</v>
       </c>
       <c r="D813" s="0" t="s">
         <v>3254</v>
@@ -26737,41 +26788,41 @@
         <v>3257</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>560</v>
+        <v>3258</v>
       </c>
       <c r="D814" s="0" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="E814" s="0" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="F814" s="0" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>560</v>
+        <v>812</v>
       </c>
       <c r="D815" s="0" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="E815" s="0" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="F815" s="0" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>3266</v>
+        <v>812</v>
       </c>
       <c r="D816" s="0" t="s">
         <v>3267</v>
@@ -26788,58 +26839,58 @@
         <v>3270</v>
       </c>
       <c r="B817" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D817" s="0" t="s">
         <v>3271</v>
       </c>
-      <c r="D817" s="0" t="s">
+      <c r="E817" s="0" t="s">
         <v>3272</v>
       </c>
-      <c r="E817" s="0" t="s">
+      <c r="F817" s="0" t="s">
         <v>3273</v>
-      </c>
-      <c r="F817" s="0" t="s">
-        <v>3274</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B818" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D818" s="0" t="s">
         <v>3275</v>
       </c>
-      <c r="B818" s="0" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D818" s="0" t="s">
+      <c r="E818" s="0" t="s">
         <v>3276</v>
       </c>
-      <c r="E818" s="0" t="s">
+      <c r="F818" s="0" t="s">
         <v>3277</v>
-      </c>
-      <c r="F818" s="0" t="s">
-        <v>3278</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B819" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D819" s="0" t="s">
         <v>3279</v>
       </c>
-      <c r="B819" s="0" t="s">
-        <v>2674</v>
-      </c>
-      <c r="D819" s="0" t="s">
+      <c r="E819" s="0" t="s">
         <v>3280</v>
       </c>
-      <c r="E819" s="0" t="s">
+      <c r="F819" s="0" t="s">
         <v>3281</v>
-      </c>
-      <c r="F819" s="0" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B820" s="0" t="s">
         <v>3283</v>
-      </c>
-      <c r="B820" s="0" t="s">
-        <v>2674</v>
       </c>
       <c r="D820" s="0" t="s">
         <v>3284</v>
@@ -26856,228 +26907,228 @@
         <v>3287</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>588</v>
+        <v>3288</v>
       </c>
       <c r="D821" s="0" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="E821" s="0" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="F821" s="0" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>565</v>
+        <v>2683</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E822" s="0" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="F822" s="0" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>565</v>
+        <v>2683</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="E823" s="0" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="F823" s="0" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>565</v>
+        <v>2683</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="E824" s="0" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="F824" s="0" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E825" s="0" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="F825" s="0" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="B826" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D826" s="0" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E826" s="0" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="F826" s="0" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="B827" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D827" s="0" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E827" s="0" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="F827" s="0" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B828" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D828" s="0" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="E828" s="0" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="F828" s="0" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="B829" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D829" s="0" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E829" s="0" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="F829" s="0" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="B830" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D830" s="0" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="E830" s="0" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="F830" s="0" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B831" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D831" s="0" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="E831" s="0" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="F831" s="0" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="B832" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D832" s="0" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="E832" s="0" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="F832" s="0" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="B833" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D833" s="0" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="E833" s="0" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="F833" s="0" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>3340</v>
+        <v>565</v>
       </c>
       <c r="D834" s="0" t="s">
         <v>3341</v>
@@ -27145,58 +27196,58 @@
         <v>3356</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>565</v>
+        <v>3357</v>
       </c>
       <c r="D838" s="0" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E838" s="0" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="F838" s="0" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="B839" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D839" s="0" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="E839" s="0" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="F839" s="0" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="B840" s="0" t="s">
         <v>565</v>
       </c>
       <c r="D840" s="0" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E840" s="0" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="F840" s="0" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>3369</v>
+        <v>565</v>
       </c>
       <c r="D841" s="0" t="s">
         <v>3370</v>
@@ -27213,7 +27264,7 @@
         <v>3373</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>3369</v>
+        <v>565</v>
       </c>
       <c r="D842" s="0" t="s">
         <v>3374</v>
@@ -27230,7 +27281,7 @@
         <v>3377</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>3369</v>
+        <v>565</v>
       </c>
       <c r="D843" s="0" t="s">
         <v>3378</v>
@@ -27247,7 +27298,7 @@
         <v>3381</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="D844" s="0" t="s">
         <v>3382</v>
@@ -27264,109 +27315,109 @@
         <v>3385</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>1876</v>
+        <v>3386</v>
       </c>
       <c r="D845" s="0" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E845" s="0" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>817</v>
+        <v>3386</v>
       </c>
       <c r="D846" s="0" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E846" s="0" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F846" s="0" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>1876</v>
+        <v>3386</v>
       </c>
       <c r="D847" s="0" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E847" s="0" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="F847" s="0" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>1876</v>
+        <v>642</v>
       </c>
       <c r="D848" s="0" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E848" s="0" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="F848" s="0" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>1867</v>
+        <v>1876</v>
       </c>
       <c r="D849" s="0" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E849" s="0" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="F849" s="0" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>1867</v>
+        <v>817</v>
       </c>
       <c r="D850" s="0" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E850" s="0" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>3410</v>
+        <v>1876</v>
       </c>
       <c r="D851" s="0" t="s">
         <v>3411</v>
@@ -27383,7 +27434,7 @@
         <v>3414</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>3410</v>
+        <v>1876</v>
       </c>
       <c r="D852" s="0" t="s">
         <v>3415</v>
@@ -27400,7 +27451,7 @@
         <v>3418</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>3410</v>
+        <v>1867</v>
       </c>
       <c r="D853" s="0" t="s">
         <v>3419</v>
@@ -27417,7 +27468,7 @@
         <v>3422</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>2195</v>
+        <v>1867</v>
       </c>
       <c r="D854" s="0" t="s">
         <v>3423</v>
@@ -27434,75 +27485,75 @@
         <v>3426</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>2195</v>
+        <v>3427</v>
       </c>
       <c r="D855" s="0" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="E855" s="0" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="F855" s="0" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>2195</v>
+        <v>3427</v>
       </c>
       <c r="D856" s="0" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="E856" s="0" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>2195</v>
+        <v>3427</v>
       </c>
       <c r="D857" s="0" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="E857" s="0" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="B858" s="0" t="s">
         <v>2195</v>
       </c>
       <c r="D858" s="0" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E858" s="0" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>3443</v>
+        <v>2195</v>
       </c>
       <c r="D859" s="0" t="s">
         <v>3444</v>
@@ -27519,58 +27570,58 @@
         <v>3447</v>
       </c>
       <c r="B860" s="0" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D860" s="0" t="s">
         <v>3448</v>
       </c>
-      <c r="D860" s="0" t="s">
+      <c r="E860" s="0" t="s">
         <v>3449</v>
       </c>
-      <c r="E860" s="0" t="s">
+      <c r="F860" s="0" t="s">
         <v>3450</v>
-      </c>
-      <c r="F860" s="0" t="s">
-        <v>3451</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="B861" s="0" t="s">
         <v>2195</v>
       </c>
       <c r="D861" s="0" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E861" s="0" t="s">
         <v>3453</v>
       </c>
-      <c r="E861" s="0" t="s">
+      <c r="F861" s="0" t="s">
         <v>3454</v>
-      </c>
-      <c r="F861" s="0" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B862" s="0" t="s">
         <v>2195</v>
       </c>
       <c r="D862" s="0" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E862" s="0" t="s">
         <v>3457</v>
       </c>
-      <c r="E862" s="0" t="s">
+      <c r="F862" s="0" t="s">
         <v>3458</v>
-      </c>
-      <c r="F862" s="0" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B863" s="0" t="s">
         <v>3460</v>
-      </c>
-      <c r="B863" s="0" t="s">
-        <v>2195</v>
       </c>
       <c r="D863" s="0" t="s">
         <v>3461</v>
@@ -27587,92 +27638,92 @@
         <v>3464</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>2195</v>
+        <v>3465</v>
       </c>
       <c r="D864" s="0" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E864" s="0" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="B865" s="0" t="s">
         <v>2195</v>
       </c>
       <c r="D865" s="0" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="E865" s="0" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="F865" s="0" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>1595</v>
+        <v>2195</v>
       </c>
       <c r="D866" s="0" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="E866" s="0" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>1595</v>
+        <v>2195</v>
       </c>
       <c r="D867" s="0" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="E867" s="0" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="F867" s="0" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>1595</v>
+        <v>2195</v>
       </c>
       <c r="D868" s="0" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E868" s="0" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>3485</v>
+        <v>2195</v>
       </c>
       <c r="D869" s="0" t="s">
         <v>3486</v>
@@ -27689,194 +27740,194 @@
         <v>3489</v>
       </c>
       <c r="B870" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D870" s="0" t="s">
         <v>3490</v>
       </c>
-      <c r="D870" s="0" t="s">
+      <c r="E870" s="0" t="s">
         <v>3491</v>
       </c>
-      <c r="E870" s="0" t="s">
+      <c r="F870" s="0" t="s">
         <v>3492</v>
-      </c>
-      <c r="F870" s="0" t="s">
-        <v>3493</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D871" s="0" t="s">
         <v>3494</v>
       </c>
-      <c r="B871" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D871" s="0" t="s">
+      <c r="E871" s="0" t="s">
         <v>3495</v>
       </c>
-      <c r="E871" s="0" t="s">
+      <c r="F871" s="0" t="s">
         <v>3496</v>
-      </c>
-      <c r="F871" s="0" t="s">
-        <v>3497</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B872" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D872" s="0" t="s">
         <v>3498</v>
       </c>
-      <c r="B872" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D872" s="0" t="s">
+      <c r="E872" s="0" t="s">
         <v>3499</v>
       </c>
-      <c r="E872" s="0" t="s">
+      <c r="F872" s="0" t="s">
         <v>3500</v>
-      </c>
-      <c r="F872" s="0" t="s">
-        <v>3501</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B873" s="0" t="s">
         <v>3502</v>
       </c>
-      <c r="B873" s="0" t="s">
+      <c r="D873" s="0" t="s">
         <v>3503</v>
       </c>
-      <c r="D873" s="0" t="s">
+      <c r="E873" s="0" t="s">
         <v>3504</v>
       </c>
-      <c r="E873" s="0" t="s">
+      <c r="F873" s="0" t="s">
         <v>3505</v>
-      </c>
-      <c r="F873" s="0" t="s">
-        <v>3506</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B874" s="0" t="s">
         <v>3507</v>
       </c>
-      <c r="B874" s="0" t="s">
+      <c r="D874" s="0" t="s">
         <v>3508</v>
       </c>
-      <c r="D874" s="0" t="s">
+      <c r="E874" s="0" t="s">
         <v>3509</v>
       </c>
-      <c r="E874" s="0" t="s">
+      <c r="F874" s="0" t="s">
         <v>3510</v>
-      </c>
-      <c r="F874" s="0" t="s">
-        <v>3511</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B875" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D875" s="0" t="s">
         <v>3512</v>
       </c>
-      <c r="B875" s="0" t="s">
+      <c r="E875" s="0" t="s">
         <v>3513</v>
       </c>
-      <c r="D875" s="0" t="s">
+      <c r="F875" s="0" t="s">
         <v>3514</v>
-      </c>
-      <c r="E875" s="0" t="s">
-        <v>3515</v>
-      </c>
-      <c r="F875" s="0" t="s">
-        <v>3516</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D876" s="0" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E876" s="0" t="s">
         <v>3517</v>
       </c>
-      <c r="B876" s="0" t="s">
+      <c r="F876" s="0" t="s">
         <v>3518</v>
-      </c>
-      <c r="D876" s="0" t="s">
-        <v>3519</v>
-      </c>
-      <c r="E876" s="0" t="s">
-        <v>3520</v>
-      </c>
-      <c r="F876" s="0" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D877" s="0" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E877" s="0" t="s">
         <v>3522</v>
       </c>
-      <c r="B877" s="0" t="s">
+      <c r="F877" s="0" t="s">
         <v>3523</v>
-      </c>
-      <c r="D877" s="0" t="s">
-        <v>3524</v>
-      </c>
-      <c r="E877" s="0" t="s">
-        <v>3525</v>
-      </c>
-      <c r="F877" s="0" t="s">
-        <v>3526</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D878" s="0" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E878" s="0" t="s">
         <v>3527</v>
       </c>
-      <c r="B878" s="0" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D878" s="0" t="s">
+      <c r="F878" s="0" t="s">
         <v>3528</v>
-      </c>
-      <c r="E878" s="0" t="s">
-        <v>3529</v>
-      </c>
-      <c r="F878" s="0" t="s">
-        <v>3530</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D879" s="0" t="s">
         <v>3531</v>
       </c>
-      <c r="B879" s="0" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D879" s="0" t="s">
+      <c r="E879" s="0" t="s">
         <v>3532</v>
       </c>
-      <c r="E879" s="0" t="s">
+      <c r="F879" s="0" t="s">
         <v>3533</v>
-      </c>
-      <c r="F879" s="0" t="s">
-        <v>3534</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B880" s="0" t="s">
         <v>3535</v>
       </c>
-      <c r="B880" s="0" t="s">
+      <c r="D880" s="0" t="s">
         <v>3536</v>
       </c>
-      <c r="D880" s="0" t="s">
+      <c r="E880" s="0" t="s">
         <v>3537</v>
       </c>
-      <c r="E880" s="0" t="s">
+      <c r="F880" s="0" t="s">
         <v>3538</v>
-      </c>
-      <c r="F880" s="0" t="s">
-        <v>3539</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B881" s="0" t="s">
         <v>3540</v>
-      </c>
-      <c r="B881" s="0" t="s">
-        <v>3536</v>
       </c>
       <c r="D881" s="0" t="s">
         <v>3541</v>
@@ -27893,75 +27944,75 @@
         <v>3544</v>
       </c>
       <c r="B882" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D882" s="0" t="s">
         <v>3545</v>
       </c>
-      <c r="D882" s="0" t="s">
+      <c r="E882" s="0" t="s">
         <v>3546</v>
       </c>
-      <c r="E882" s="0" t="s">
+      <c r="F882" s="0" t="s">
         <v>3547</v>
-      </c>
-      <c r="F882" s="0" t="s">
-        <v>3548</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D883" s="0" t="s">
         <v>3549</v>
       </c>
-      <c r="B883" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="D883" s="0" t="s">
+      <c r="E883" s="0" t="s">
         <v>3550</v>
       </c>
-      <c r="E883" s="0" t="s">
+      <c r="F883" s="0" t="s">
         <v>3551</v>
-      </c>
-      <c r="F883" s="0" t="s">
-        <v>3552</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B884" s="0" t="s">
         <v>3553</v>
       </c>
-      <c r="B884" s="0" t="s">
+      <c r="D884" s="0" t="s">
         <v>3554</v>
       </c>
-      <c r="D884" s="0" t="s">
+      <c r="E884" s="0" t="s">
         <v>3555</v>
       </c>
-      <c r="E884" s="0" t="s">
+      <c r="F884" s="0" t="s">
         <v>3556</v>
-      </c>
-      <c r="F884" s="0" t="s">
-        <v>3557</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D885" s="0" t="s">
         <v>3558</v>
       </c>
-      <c r="B885" s="0" t="s">
-        <v>3554</v>
-      </c>
-      <c r="D885" s="0" t="s">
+      <c r="E885" s="0" t="s">
         <v>3559</v>
       </c>
-      <c r="E885" s="0" t="s">
+      <c r="F885" s="0" t="s">
         <v>3560</v>
-      </c>
-      <c r="F885" s="0" t="s">
-        <v>3561</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B886" s="0" t="s">
         <v>3562</v>
-      </c>
-      <c r="B886" s="0" t="s">
-        <v>3554</v>
       </c>
       <c r="D886" s="0" t="s">
         <v>3563</v>
@@ -27978,7 +28029,7 @@
         <v>3566</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>3554</v>
+        <v>474</v>
       </c>
       <c r="D887" s="0" t="s">
         <v>3567</v>
@@ -27995,24 +28046,24 @@
         <v>3570</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>3554</v>
+        <v>3571</v>
       </c>
       <c r="D888" s="0" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="E888" s="0" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="F888" s="0" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
       <c r="D889" s="0" t="s">
         <v>3576</v>
@@ -28029,7 +28080,7 @@
         <v>3579</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>3167</v>
+        <v>3571</v>
       </c>
       <c r="D890" s="0" t="s">
         <v>3580</v>
@@ -28046,24 +28097,24 @@
         <v>3583</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>3167</v>
+        <v>3571</v>
       </c>
       <c r="D891" s="0" t="s">
         <v>3584</v>
       </c>
       <c r="E891" s="0" t="s">
-        <v>3581</v>
+        <v>3585</v>
       </c>
       <c r="F891" s="0" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>3587</v>
+        <v>3571</v>
       </c>
       <c r="D892" s="0" t="s">
         <v>3588</v>
@@ -28080,47 +28131,47 @@
         <v>3591</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>2641</v>
+        <v>3592</v>
       </c>
       <c r="D893" s="0" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E893" s="0" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="F893" s="0" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>642</v>
+        <v>3184</v>
       </c>
       <c r="D894" s="0" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E894" s="0" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="F894" s="0" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>642</v>
+        <v>3184</v>
       </c>
       <c r="D895" s="0" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E895" s="0" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="F895" s="0" t="s">
         <v>3602</v>
@@ -28131,58 +28182,58 @@
         <v>3603</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>40</v>
+        <v>3604</v>
       </c>
       <c r="D896" s="0" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E896" s="0" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="F896" s="0" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>40</v>
+        <v>2650</v>
       </c>
       <c r="D897" s="0" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E897" s="0" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F897" s="0" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>40</v>
+        <v>642</v>
       </c>
       <c r="D898" s="0" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E898" s="0" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="F898" s="0" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>3616</v>
+        <v>642</v>
       </c>
       <c r="D899" s="0" t="s">
         <v>3617</v>
@@ -28199,7 +28250,7 @@
         <v>3620</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="D900" s="0" t="s">
         <v>3621</v>
@@ -28216,7 +28267,7 @@
         <v>3624</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>690</v>
+        <v>40</v>
       </c>
       <c r="D901" s="0" t="s">
         <v>3625</v>
@@ -28233,24 +28284,24 @@
         <v>3628</v>
       </c>
       <c r="B902" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D902" s="0" t="s">
         <v>3629</v>
       </c>
-      <c r="D902" s="0" t="s">
+      <c r="E902" s="0" t="s">
         <v>3630</v>
       </c>
-      <c r="E902" s="0" t="s">
+      <c r="F902" s="0" t="s">
         <v>3631</v>
-      </c>
-      <c r="F902" s="0" t="s">
-        <v>3632</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B903" s="0" t="s">
         <v>3633</v>
-      </c>
-      <c r="B903" s="0" t="s">
-        <v>3629</v>
       </c>
       <c r="D903" s="0" t="s">
         <v>3634</v>
@@ -28267,92 +28318,92 @@
         <v>3637</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>3629</v>
+        <v>347</v>
       </c>
       <c r="D904" s="0" t="s">
-        <v>1788</v>
+        <v>3638</v>
       </c>
       <c r="E904" s="0" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="F904" s="0" t="s">
-        <v>1790</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>134</v>
+        <v>690</v>
       </c>
       <c r="D905" s="0" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="E905" s="0" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="F905" s="0" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>134</v>
+        <v>3646</v>
       </c>
       <c r="D906" s="0" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="E906" s="0" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="F906" s="0" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>1229</v>
+        <v>3646</v>
       </c>
       <c r="D907" s="0" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="E907" s="0" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="F907" s="0" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>1229</v>
+        <v>3646</v>
       </c>
       <c r="D908" s="0" t="s">
-        <v>3652</v>
+        <v>1788</v>
       </c>
       <c r="E908" s="0" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="F908" s="0" t="s">
-        <v>3654</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>3656</v>
+        <v>134</v>
       </c>
       <c r="D909" s="0" t="s">
         <v>3657</v>
@@ -28369,7 +28420,7 @@
         <v>3660</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>3656</v>
+        <v>134</v>
       </c>
       <c r="D910" s="0" t="s">
         <v>3661</v>
@@ -28386,41 +28437,41 @@
         <v>3664</v>
       </c>
       <c r="B911" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D911" s="0" t="s">
         <v>3665</v>
       </c>
-      <c r="D911" s="0" t="s">
+      <c r="E911" s="0" t="s">
         <v>3666</v>
       </c>
-      <c r="E911" s="0" t="s">
+      <c r="F911" s="0" t="s">
         <v>3667</v>
-      </c>
-      <c r="F911" s="0" t="s">
-        <v>3668</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D912" s="0" t="s">
         <v>3669</v>
       </c>
-      <c r="B912" s="0" t="s">
-        <v>3665</v>
-      </c>
-      <c r="D912" s="0" t="s">
+      <c r="E912" s="0" t="s">
         <v>3670</v>
       </c>
-      <c r="E912" s="0" t="s">
+      <c r="F912" s="0" t="s">
         <v>3671</v>
-      </c>
-      <c r="F912" s="0" t="s">
-        <v>3672</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B913" s="0" t="s">
         <v>3673</v>
-      </c>
-      <c r="B913" s="0" t="s">
-        <v>3665</v>
       </c>
       <c r="D913" s="0" t="s">
         <v>3674</v>
@@ -28437,7 +28488,7 @@
         <v>3677</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>3665</v>
+        <v>3673</v>
       </c>
       <c r="D914" s="0" t="s">
         <v>3678</v>
@@ -28454,177 +28505,177 @@
         <v>3681</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>3665</v>
+        <v>3682</v>
       </c>
       <c r="D915" s="0" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="E915" s="0" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="F915" s="0" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>3665</v>
+        <v>3682</v>
       </c>
       <c r="D916" s="0" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="E916" s="0" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="F916" s="0" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>3665</v>
+        <v>3682</v>
       </c>
       <c r="D917" s="0" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="E917" s="0" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="F917" s="0" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>583</v>
+        <v>3682</v>
       </c>
       <c r="D918" s="0" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="E918" s="0" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="F918" s="0" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>574</v>
+        <v>3682</v>
       </c>
       <c r="D919" s="0" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="E919" s="0" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="F919" s="0" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>574</v>
+        <v>3682</v>
       </c>
       <c r="D920" s="0" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="E920" s="0" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="F920" s="0" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>1106</v>
+        <v>3682</v>
       </c>
       <c r="D921" s="0" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E921" s="0" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="F921" s="0" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>1106</v>
+        <v>583</v>
       </c>
       <c r="D922" s="0" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="E922" s="0" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="F922" s="0" t="s">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="923" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D923" s="2" t="s">
-        <v>3714</v>
-      </c>
-      <c r="E923" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D923" s="0" t="s">
         <v>3715</v>
       </c>
-      <c r="F923" s="2" t="s">
+      <c r="E923" s="0" t="s">
         <v>3716</v>
+      </c>
+      <c r="F923" s="0" t="s">
+        <v>3717</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>1106</v>
+        <v>574</v>
       </c>
       <c r="D924" s="0" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="E924" s="0" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="F924" s="0" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>3722</v>
+        <v>1106</v>
       </c>
       <c r="D925" s="0" t="s">
         <v>3723</v>
@@ -28641,58 +28692,58 @@
         <v>3726</v>
       </c>
       <c r="B926" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D926" s="0" t="s">
         <v>3727</v>
       </c>
-      <c r="D926" s="0" t="s">
+      <c r="E926" s="0" t="s">
         <v>3728</v>
       </c>
-      <c r="E926" s="0" t="s">
+      <c r="F926" s="0" t="s">
         <v>3729</v>
       </c>
-      <c r="F926" s="0" t="s">
+    </row>
+    <row r="927" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="s">
         <v>3730</v>
       </c>
-    </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="0" t="s">
+      <c r="B927" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D927" s="2" t="s">
         <v>3731</v>
       </c>
-      <c r="B927" s="0" t="s">
-        <v>2539</v>
-      </c>
-      <c r="D927" s="0" t="s">
+      <c r="E927" s="2" t="s">
         <v>3732</v>
       </c>
-      <c r="E927" s="0" t="s">
+      <c r="F927" s="2" t="s">
         <v>3733</v>
-      </c>
-      <c r="F927" s="0" t="s">
-        <v>3734</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D928" s="0" t="s">
         <v>3735</v>
       </c>
-      <c r="B928" s="0" t="s">
-        <v>2539</v>
-      </c>
-      <c r="D928" s="0" t="s">
+      <c r="E928" s="0" t="s">
         <v>3736</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="F928" s="0" t="s">
         <v>3737</v>
-      </c>
-      <c r="F928" s="0" t="s">
-        <v>3738</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B929" s="0" t="s">
         <v>3739</v>
-      </c>
-      <c r="B929" s="0" t="s">
-        <v>2539</v>
       </c>
       <c r="D929" s="0" t="s">
         <v>3740</v>
@@ -28726,109 +28777,109 @@
         <v>3748</v>
       </c>
       <c r="B931" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D931" s="0" t="s">
         <v>3749</v>
       </c>
-      <c r="D931" s="0" t="s">
+      <c r="E931" s="0" t="s">
         <v>3750</v>
       </c>
-      <c r="E931" s="0" t="s">
+      <c r="F931" s="0" t="s">
         <v>3751</v>
-      </c>
-      <c r="F931" s="0" t="s">
-        <v>3752</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D932" s="0" t="s">
         <v>3753</v>
       </c>
-      <c r="B932" s="0" t="s">
+      <c r="E932" s="0" t="s">
         <v>3754</v>
       </c>
-      <c r="D932" s="0" t="s">
+      <c r="F932" s="0" t="s">
         <v>3755</v>
-      </c>
-      <c r="E932" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="F932" s="0" t="s">
-        <v>3757</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D933" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E933" s="0" t="s">
         <v>3758</v>
       </c>
-      <c r="B933" s="0" t="s">
+      <c r="F933" s="0" t="s">
         <v>3759</v>
-      </c>
-      <c r="D933" s="0" t="s">
-        <v>3760</v>
-      </c>
-      <c r="E933" s="0" t="s">
-        <v>3761</v>
-      </c>
-      <c r="F933" s="0" t="s">
-        <v>3762</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D934" s="0" t="s">
+        <v>3762</v>
+      </c>
+      <c r="E934" s="0" t="s">
         <v>3763</v>
       </c>
-      <c r="B934" s="0" t="s">
+      <c r="F934" s="0" t="s">
         <v>3764</v>
-      </c>
-      <c r="D934" s="0" t="s">
-        <v>3765</v>
-      </c>
-      <c r="E934" s="0" t="s">
-        <v>3766</v>
-      </c>
-      <c r="F934" s="0" t="s">
-        <v>3767</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D935" s="0" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E935" s="0" t="s">
         <v>3768</v>
       </c>
-      <c r="B935" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D935" s="0" t="s">
+      <c r="F935" s="0" t="s">
         <v>3769</v>
-      </c>
-      <c r="E935" s="0" t="s">
-        <v>3770</v>
-      </c>
-      <c r="F935" s="0" t="s">
-        <v>3771</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D936" s="0" t="s">
         <v>3772</v>
       </c>
-      <c r="B936" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D936" s="0" t="s">
+      <c r="E936" s="0" t="s">
         <v>3773</v>
       </c>
-      <c r="E936" s="0" t="s">
+      <c r="F936" s="0" t="s">
         <v>3774</v>
-      </c>
-      <c r="F936" s="0" t="s">
-        <v>3775</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B937" s="0" t="s">
         <v>3776</v>
-      </c>
-      <c r="B937" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D937" s="0" t="s">
         <v>3777</v>
@@ -28845,75 +28896,75 @@
         <v>3780</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>211</v>
+        <v>3781</v>
       </c>
       <c r="D938" s="0" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="E938" s="0" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="F938" s="0" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="D939" s="0" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E939" s="0" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="F939" s="0" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="D940" s="0" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="E940" s="0" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="F940" s="0" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="D941" s="0" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="E941" s="0" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="F941" s="0" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>3797</v>
+        <v>211</v>
       </c>
       <c r="D942" s="0" t="s">
         <v>3798</v>
@@ -28930,160 +28981,160 @@
         <v>3801</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>3797</v>
+        <v>262</v>
       </c>
       <c r="D943" s="0" t="s">
-        <v>3798</v>
+        <v>3802</v>
       </c>
       <c r="E943" s="0" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
       <c r="F943" s="0" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>3797</v>
+        <v>262</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>3798</v>
+        <v>3806</v>
       </c>
       <c r="E944" s="0" t="s">
-        <v>3799</v>
+        <v>3807</v>
       </c>
       <c r="F944" s="0" t="s">
-        <v>3800</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>3803</v>
+        <v>3809</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>3797</v>
+        <v>262</v>
       </c>
       <c r="D945" s="0" t="s">
-        <v>3804</v>
+        <v>3810</v>
       </c>
       <c r="E945" s="0" t="s">
-        <v>3805</v>
+        <v>3811</v>
       </c>
       <c r="F945" s="0" t="s">
-        <v>3806</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>3807</v>
+        <v>3813</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>262</v>
+        <v>3814</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>3808</v>
+        <v>3815</v>
       </c>
       <c r="E946" s="0" t="s">
-        <v>3809</v>
+        <v>3816</v>
       </c>
       <c r="F946" s="0" t="s">
-        <v>3810</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>3811</v>
+        <v>3818</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>2869</v>
+        <v>3814</v>
       </c>
       <c r="D947" s="0" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="E947" s="0" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="F947" s="0" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D948" s="0" t="s">
         <v>3815</v>
       </c>
-      <c r="B948" s="0" t="s">
+      <c r="E948" s="0" t="s">
         <v>3816</v>
       </c>
-      <c r="D948" s="0" t="s">
+      <c r="F948" s="0" t="s">
         <v>3817</v>
       </c>
-      <c r="E948" s="0" t="s">
-        <v>3818</v>
-      </c>
-      <c r="F948" s="0" t="s">
-        <v>3819</v>
-      </c>
-    </row>
-    <row r="949" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
         <v>3820</v>
       </c>
       <c r="B949" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D949" s="0" t="s">
         <v>3821</v>
       </c>
-      <c r="D949" s="2" t="s">
+      <c r="E949" s="0" t="s">
         <v>3822</v>
       </c>
-      <c r="E949" s="2" t="s">
+      <c r="F949" s="0" t="s">
         <v>3823</v>
       </c>
-      <c r="F949" s="2" t="s">
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="0" t="s">
         <v>3824</v>
       </c>
-    </row>
-    <row r="950" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
+      <c r="B950" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D950" s="0" t="s">
         <v>3825</v>
       </c>
-      <c r="B950" s="0" t="s">
-        <v>3271</v>
-      </c>
-      <c r="D950" s="2" t="s">
+      <c r="E950" s="0" t="s">
         <v>3826</v>
       </c>
-      <c r="E950" s="2" t="s">
+      <c r="F950" s="0" t="s">
         <v>3827</v>
-      </c>
-      <c r="F950" s="2" t="s">
-        <v>3828</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D951" s="0" t="s">
         <v>3829</v>
       </c>
-      <c r="B951" s="0" t="s">
-        <v>3271</v>
-      </c>
-      <c r="D951" s="0" t="s">
+      <c r="E951" s="0" t="s">
         <v>3830</v>
       </c>
-      <c r="E951" s="0" t="s">
+      <c r="F951" s="0" t="s">
         <v>3831</v>
-      </c>
-      <c r="F951" s="0" t="s">
-        <v>3832</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B952" s="0" t="s">
         <v>3833</v>
-      </c>
-      <c r="B952" s="0" t="s">
-        <v>3271</v>
       </c>
       <c r="D952" s="0" t="s">
         <v>3834</v>
@@ -29095,361 +29146,361 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
         <v>3837</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>3271</v>
-      </c>
-      <c r="D953" s="0" t="s">
         <v>3838</v>
       </c>
-      <c r="E953" s="0" t="s">
+      <c r="D953" s="2" t="s">
         <v>3839</v>
       </c>
-      <c r="F953" s="0" t="s">
+      <c r="E953" s="2" t="s">
         <v>3840</v>
       </c>
-    </row>
-    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F953" s="2" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="D954" s="0" t="s">
-        <v>3842</v>
-      </c>
-      <c r="E954" s="0" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D954" s="2" t="s">
         <v>3843</v>
       </c>
-      <c r="F954" s="0" t="s">
+      <c r="E954" s="2" t="s">
         <v>3844</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>3845</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>817</v>
+        <v>3288</v>
       </c>
       <c r="D955" s="0" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="E955" s="0" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="F955" s="0" t="s">
-        <v>3848</v>
-      </c>
-    </row>
-    <row r="956" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="D956" s="2" t="s">
-        <v>3850</v>
-      </c>
-      <c r="E956" s="2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D956" s="0" t="s">
         <v>3851</v>
       </c>
-      <c r="F956" s="2" t="s">
+      <c r="E956" s="0" t="s">
         <v>3852</v>
+      </c>
+      <c r="F956" s="0" t="s">
+        <v>3853</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>817</v>
+        <v>3288</v>
       </c>
       <c r="D957" s="0" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="E957" s="0" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="F957" s="0" t="s">
-        <v>3856</v>
-      </c>
-    </row>
-    <row r="958" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="B958" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="D958" s="2" t="s">
-        <v>3858</v>
-      </c>
-      <c r="E958" s="2" t="s">
+      <c r="D958" s="0" t="s">
         <v>3859</v>
       </c>
-      <c r="F958" s="2" t="s">
+      <c r="E958" s="0" t="s">
         <v>3860</v>
+      </c>
+      <c r="F958" s="0" t="s">
+        <v>3861</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>3797</v>
+        <v>817</v>
       </c>
       <c r="D959" s="0" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="E959" s="0" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="F959" s="0" t="s">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D960" s="0" t="s">
-        <v>3866</v>
-      </c>
-      <c r="E960" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="D960" s="2" t="s">
         <v>3867</v>
       </c>
-      <c r="F960" s="0" t="s">
+      <c r="E960" s="2" t="s">
         <v>3868</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>3869</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>597</v>
+        <v>817</v>
       </c>
       <c r="D961" s="0" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="E961" s="0" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="F961" s="0" t="s">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="962" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>3797</v>
+        <v>817</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="E962" s="2" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="F962" s="2" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>3797</v>
+        <v>3814</v>
       </c>
       <c r="D963" s="0" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E963" s="0" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="F963" s="0" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>3797</v>
+        <v>3814</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="E964" s="0" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="F964" s="0" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="B965" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="E965" s="0" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="F965" s="0" t="s">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="D966" s="0" t="s">
-        <v>3890</v>
-      </c>
-      <c r="E966" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D966" s="2" t="s">
         <v>3891</v>
       </c>
-      <c r="F966" s="0" t="s">
+      <c r="E966" s="2" t="s">
         <v>3892</v>
+      </c>
+      <c r="F966" s="2" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>597</v>
+        <v>3814</v>
       </c>
       <c r="D967" s="0" t="s">
-        <v>3890</v>
+        <v>3895</v>
       </c>
       <c r="E967" s="0" t="s">
-        <v>3891</v>
+        <v>3896</v>
       </c>
       <c r="F967" s="0" t="s">
-        <v>3892</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>3894</v>
+        <v>3898</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>597</v>
+        <v>3814</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>3895</v>
+        <v>3899</v>
       </c>
       <c r="E968" s="0" t="s">
-        <v>3896</v>
+        <v>3900</v>
       </c>
       <c r="F968" s="0" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
       <c r="B969" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>3895</v>
+        <v>3903</v>
       </c>
       <c r="E969" s="0" t="s">
-        <v>3896</v>
+        <v>3904</v>
       </c>
       <c r="F969" s="0" t="s">
-        <v>3897</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>3899</v>
+        <v>3906</v>
       </c>
       <c r="B970" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D970" s="0" t="s">
-        <v>3900</v>
+        <v>3907</v>
       </c>
       <c r="E970" s="0" t="s">
-        <v>3901</v>
+        <v>3908</v>
       </c>
       <c r="F970" s="0" t="s">
-        <v>3902</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>3903</v>
+        <v>3910</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>3904</v>
+        <v>597</v>
       </c>
       <c r="D971" s="0" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="E971" s="0" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
       <c r="F971" s="0" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>3908</v>
+        <v>3911</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>3904</v>
+        <v>597</v>
       </c>
       <c r="D972" s="0" t="s">
-        <v>3909</v>
+        <v>3912</v>
       </c>
       <c r="E972" s="0" t="s">
-        <v>3910</v>
+        <v>3913</v>
       </c>
       <c r="F972" s="0" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D973" s="0" t="s">
         <v>3912</v>
       </c>
-      <c r="B973" s="0" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D973" s="0" t="s">
+      <c r="E973" s="0" t="s">
         <v>3913</v>
       </c>
-      <c r="E973" s="0" t="s">
+      <c r="F973" s="0" t="s">
         <v>3914</v>
-      </c>
-      <c r="F973" s="0" t="s">
-        <v>3915</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29457,7 +29508,7 @@
         <v>3916</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>3904</v>
+        <v>597</v>
       </c>
       <c r="D974" s="0" t="s">
         <v>3917</v>
@@ -29467,6 +29518,74 @@
       </c>
       <c r="F974" s="0" t="s">
         <v>3919</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="0" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D975" s="0" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E975" s="0" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F975" s="0" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="0" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D976" s="0" t="s">
+        <v>3926</v>
+      </c>
+      <c r="E976" s="0" t="s">
+        <v>3927</v>
+      </c>
+      <c r="F976" s="0" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="0" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D977" s="0" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E977" s="0" t="s">
+        <v>3931</v>
+      </c>
+      <c r="F977" s="0" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="0" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D978" s="0" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E978" s="0" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F978" s="0" t="s">
+        <v>3936</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Game.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="3937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="3942">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -11915,6 +11915,21 @@
   </si>
   <si>
     <t xml:space="preserve">#1が地面に転がった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall_bond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 피의 대가를 치렀다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #1 sacrifice(s) #his blood.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は血の代償を払った。</t>
   </si>
   <si>
     <t xml:space="preserve">wall_flesh</t>
@@ -12318,12 +12333,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F978"/>
+  <dimension ref="A1:F979"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A945" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L669" activeCellId="0" sqref="L669"/>
+      <selection pane="bottomLeft" activeCell="J962" activeCellId="0" sqref="J962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29338,140 +29353,140 @@
         <v>3882</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>3814</v>
+        <v>3883</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="E964" s="0" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="F964" s="0" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="B965" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D965" s="0" t="s">
+        <v>3888</v>
+      </c>
+      <c r="E965" s="0" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F965" s="0" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="0" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B966" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="D965" s="0" t="s">
-        <v>3887</v>
-      </c>
-      <c r="E965" s="0" t="s">
-        <v>3888</v>
-      </c>
-      <c r="F965" s="0" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="966" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="0" t="s">
-        <v>3890</v>
-      </c>
-      <c r="B966" s="0" t="s">
-        <v>3814</v>
-      </c>
-      <c r="D966" s="2" t="s">
-        <v>3891</v>
-      </c>
-      <c r="E966" s="2" t="s">
+      <c r="D966" s="0" t="s">
         <v>3892</v>
       </c>
-      <c r="F966" s="2" t="s">
+      <c r="E966" s="0" t="s">
         <v>3893</v>
       </c>
-    </row>
-    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F966" s="0" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="B967" s="0" t="s">
         <v>3814</v>
       </c>
-      <c r="D967" s="0" t="s">
-        <v>3895</v>
-      </c>
-      <c r="E967" s="0" t="s">
+      <c r="D967" s="2" t="s">
         <v>3896</v>
       </c>
-      <c r="F967" s="0" t="s">
+      <c r="E967" s="2" t="s">
         <v>3897</v>
+      </c>
+      <c r="F967" s="2" t="s">
+        <v>3898</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="B968" s="0" t="s">
         <v>3814</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="E968" s="0" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="F968" s="0" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>597</v>
+        <v>3814</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="E969" s="0" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="F969" s="0" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="B970" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D970" s="0" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E970" s="0" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="F970" s="0" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="B971" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D971" s="0" t="s">
-        <v>3907</v>
+        <v>3912</v>
       </c>
       <c r="E971" s="0" t="s">
-        <v>3908</v>
+        <v>3913</v>
       </c>
       <c r="F971" s="0" t="s">
-        <v>3909</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>3911</v>
+        <v>3915</v>
       </c>
       <c r="B972" s="0" t="s">
         <v>597</v>
@@ -29488,24 +29503,24 @@
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="B973" s="0" t="s">
         <v>597</v>
       </c>
       <c r="D973" s="0" t="s">
-        <v>3912</v>
+        <v>3917</v>
       </c>
       <c r="E973" s="0" t="s">
-        <v>3913</v>
+        <v>3918</v>
       </c>
       <c r="F973" s="0" t="s">
-        <v>3914</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>3916</v>
+        <v>3920</v>
       </c>
       <c r="B974" s="0" t="s">
         <v>597</v>
@@ -29522,10 +29537,10 @@
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>3921</v>
+        <v>597</v>
       </c>
       <c r="D975" s="0" t="s">
         <v>3922</v>
@@ -29542,50 +29557,67 @@
         <v>3925</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>3921</v>
+        <v>3926</v>
       </c>
       <c r="D976" s="0" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="E976" s="0" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="F976" s="0" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>3921</v>
+        <v>3926</v>
       </c>
       <c r="D977" s="0" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="E977" s="0" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F977" s="0" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>3921</v>
+        <v>3926</v>
       </c>
       <c r="D978" s="0" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="E978" s="0" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="F978" s="0" t="s">
-        <v>3936</v>
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="0" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D979" s="0" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E979" s="0" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F979" s="0" t="s">
+        <v>3941</v>
       </c>
     </row>
   </sheetData>
